--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t/>
   </si>
@@ -53,10 +53,10 @@
     <t>个人</t>
   </si>
   <si>
-    <t>潜客25</t>
+    <t>潜客90</t>
   </si>
   <si>
-    <t>15797312995</t>
+    <t>15718306139</t>
   </si>
   <si>
     <t>女</t>
@@ -65,10 +65,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Model 3</t>
-  </si>
-  <si>
-    <t>2021/04/23 16:49:09</t>
+    <t>2021-05-12 14:17</t>
   </si>
   <si>
     <t>自动化专用账号</t>
@@ -177,16 +174,16 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t/>
   </si>
@@ -47,16 +47,16 @@
     <t>*销售账号</t>
   </si>
   <si>
-    <t>中关村店(全称)</t>
+    <t>中关村店(简称)</t>
   </si>
   <si>
     <t>个人</t>
   </si>
   <si>
-    <t>潜客90</t>
+    <t>潜客67</t>
   </si>
   <si>
-    <t>15718306139</t>
+    <t>15759459541</t>
   </si>
   <si>
     <t>女</t>
@@ -65,7 +65,10 @@
     <t>Model</t>
   </si>
   <si>
-    <t>2021-05-12 14:17</t>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>2021/05/25 14:34:34</t>
   </si>
   <si>
     <t>自动化专用账号</t>
@@ -174,16 +177,16 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t/>
   </si>
@@ -53,22 +53,16 @@
     <t>个人</t>
   </si>
   <si>
-    <t>潜客67</t>
+    <t>潜客40</t>
   </si>
   <si>
-    <t>15759459541</t>
+    <t>15774612161</t>
   </si>
   <si>
     <t>女</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Model 3</t>
-  </si>
-  <si>
-    <t>2021/05/25 14:34:34</t>
+    <t>2021-05-31 14:24</t>
   </si>
   <si>
     <t>自动化专用账号</t>
@@ -174,19 +168,19 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t/>
   </si>
@@ -47,28 +47,34 @@
     <t>*销售账号</t>
   </si>
   <si>
-    <t>中关村店(简称)</t>
+    <t>中关村店简</t>
   </si>
   <si>
     <t>个人</t>
   </si>
   <si>
-    <t>潜客40</t>
+    <t>潜客34</t>
   </si>
   <si>
-    <t>15774612161</t>
+    <t>15790605875</t>
   </si>
   <si>
     <t>女</t>
   </si>
   <si>
-    <t>2021-05-31 14:24</t>
+    <t>Model</t>
   </si>
   <si>
-    <t>自动化专用账号</t>
+    <t>特斯拉 Model 3</t>
   </si>
   <si>
-    <t>13402050050</t>
+    <t>2021-06-08 17:48</t>
+  </si>
+  <si>
+    <t>接待顾问x</t>
+  </si>
+  <si>
+    <t>15037286011</t>
   </si>
 </sst>
 </file>
@@ -168,19 +174,19 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
@@ -47,16 +47,16 @@
     <t>*销售账号</t>
   </si>
   <si>
-    <t>中关村店简</t>
+    <t>中关村店(简称)</t>
   </si>
   <si>
     <t>个人</t>
   </si>
   <si>
-    <t>潜客34</t>
+    <t>潜客33</t>
   </si>
   <si>
-    <t>15790605875</t>
+    <t>15763387321</t>
   </si>
   <si>
     <t>女</t>
@@ -65,16 +65,16 @@
     <t>Model</t>
   </si>
   <si>
-    <t>特斯拉 Model 3</t>
+    <t>Model 3</t>
   </si>
   <si>
-    <t>2021-06-08 17:48</t>
+    <t>2021/06/16 15:09:09</t>
   </si>
   <si>
-    <t>接待顾问x</t>
+    <t>自动化专用账号</t>
   </si>
   <si>
-    <t>15037286011</t>
+    <t>13402050050</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
@@ -47,16 +47,16 @@
     <t>*销售账号</t>
   </si>
   <si>
-    <t>中关村店(简称)</t>
+    <t>中关村店简</t>
   </si>
   <si>
     <t>个人</t>
   </si>
   <si>
-    <t>潜客33</t>
+    <t>潜客52</t>
   </si>
   <si>
-    <t>15763387321</t>
+    <t>15792520727</t>
   </si>
   <si>
     <t>女</t>
@@ -68,13 +68,13 @@
     <t>Model 3</t>
   </si>
   <si>
-    <t>2021/06/16 15:09:09</t>
+    <t>2021-06-22 12:02</t>
   </si>
   <si>
-    <t>自动化专用账号</t>
+    <t>接待顾问x</t>
   </si>
   <si>
-    <t>13402050050</t>
+    <t>15037286011</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
@@ -47,16 +47,16 @@
     <t>*销售账号</t>
   </si>
   <si>
-    <t>中关村店简</t>
+    <t>中关村店(简称)</t>
   </si>
   <si>
     <t>个人</t>
   </si>
   <si>
-    <t>潜客52</t>
+    <t>潜客49</t>
   </si>
   <si>
-    <t>15792520727</t>
+    <t>15774433710</t>
   </si>
   <si>
     <t>女</t>
@@ -68,13 +68,13 @@
     <t>Model 3</t>
   </si>
   <si>
-    <t>2021-06-22 12:02</t>
+    <t>2021/07/13 10:39:56</t>
   </si>
   <si>
-    <t>接待顾问x</t>
+    <t>自动化专用账号</t>
   </si>
   <si>
-    <t>15037286011</t>
+    <t>13402050050</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t/>
   </si>
@@ -53,10 +53,10 @@
     <t>个人</t>
   </si>
   <si>
-    <t>潜客49</t>
+    <t>潜客26</t>
   </si>
   <si>
-    <t>15774433710</t>
+    <t>15773438027</t>
   </si>
   <si>
     <t>女</t>
@@ -65,10 +65,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Model 3</t>
-  </si>
-  <si>
-    <t>2021/07/13 10:39:56</t>
+    <t>2021-07-30 11:03</t>
   </si>
   <si>
     <t>自动化专用账号</t>
@@ -177,16 +174,16 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importPotentialCustomerfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t/>
   </si>
@@ -53,19 +53,16 @@
     <t>个人</t>
   </si>
   <si>
-    <t>潜客26</t>
+    <t>潜客55</t>
   </si>
   <si>
-    <t>15773438027</t>
+    <t>15716751617</t>
   </si>
   <si>
     <t>女</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>2021-07-30 11:03</t>
+    <t>2021-08-09 14:22</t>
   </si>
   <si>
     <t>自动化专用账号</t>
@@ -171,19 +168,19 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
